--- a/results_small/Res_Simulate_data_small_goal.xlsx
+++ b/results_small/Res_Simulate_data_small_goal.xlsx
@@ -48,8 +48,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EEAC7"/>
-        <bgColor rgb="FF8EEAC7"/>
+        <fgColor rgb="FFF4E3E7"/>
+        <bgColor rgb="FFF4E3E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBC94E6"/>
+        <bgColor rgb="FFBC94E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -60,14 +66,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC94E6"/>
-        <bgColor rgb="FFBC94E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E3E7"/>
-        <bgColor rgb="FFF4E3E7"/>
+        <fgColor rgb="FF8EEAC7"/>
+        <bgColor rgb="FF8EEAC7"/>
       </patternFill>
     </fill>
     <fill>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.284501713787086</v>
+        <v>1.732538818458382</v>
       </c>
     </row>
     <row r="3">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.54078602790833</v>
+        <v>43.59425806999207</v>
       </c>
     </row>
     <row r="4">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.105900821326526e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366990</v>
+        <v>369379</v>
       </c>
       <c r="C2" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="D2" t="n">
-        <v>7.4</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="3">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>378292</v>
+        <v>405312</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="D3" t="n">
-        <v>7.3</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="4">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382411</v>
+        <v>383305</v>
       </c>
       <c r="C4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="D4" t="n">
-        <v>8.48</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.484663770183515e-05</v>
+        <v>2.782957170289149e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>403689.0000000001</v>
+        <v>406316.9</v>
       </c>
     </row>
     <row r="3">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.454529897868748</v>
+        <v>4.762557996446024</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.847668910496135</v>
+        <v>1.018302212492989</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380272</v>
+        <v>381816</v>
       </c>
     </row>
     <row r="4">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.48</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10428</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="3">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9844</v>
+        <v>10653</v>
       </c>
     </row>
     <row r="4">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20272</v>
+        <v>21816</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1038,7 +1038,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1112,11 +1112,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Person 4</t>
+          <t>Person 3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -1125,98 +1125,98 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Person 8</t>
+          <t>Person 4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Person 11</t>
+          <t>Person 8</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Person 12</t>
+          <t>Person 11</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Person 19</t>
+          <t>Person 12</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Person 20</t>
+          <t>Person 19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person 22</t>
+          <t>Person 20</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Person 26</t>
+          <t>Person 22</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Person 28</t>
+          <t>Person 26</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1229,7 +1229,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Person 29</t>
+          <t>Person 28</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1242,20 +1242,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Person 32</t>
+          <t>Person 29</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Person 34</t>
+          <t>Person 32</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1268,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Person 41</t>
+          <t>Person 34</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1281,72 +1281,72 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Person 45</t>
+          <t>Person 41</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Person 54</t>
+          <t>Person 45</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Person 55</t>
+          <t>Person 54</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Person 56</t>
+          <t>Person 55</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
         <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Person 59</t>
+          <t>Person 56</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Person 63</t>
+          <t>Person 59</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1359,7 +1359,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Person 64</t>
+          <t>Person 63</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1372,20 +1372,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Person 68</t>
+          <t>Person 64</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Person 70</t>
+          <t>Person 68</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1398,7 +1398,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Person 71</t>
+          <t>Person 70</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1411,33 +1411,33 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Person 76</t>
+          <t>Person 71</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Person 86</t>
+          <t>Person 76</t>
         </is>
       </c>
       <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
         <v>4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Person 89</t>
+          <t>Person 86</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1450,7 +1450,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Person 91</t>
+          <t>Person 89</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1604,32 +1604,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Person 20</t>
+          <t>Person 32</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>MDCA</t>
+          <t>DONS</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>MDCA</t>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Person 26</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
+          <t>Person 34</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
@@ -1638,20 +1638,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Person 32</t>
+          <t>Person 41</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>DONS</t>
+          <t>MDCA</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="n"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>MDCA</t>
@@ -1661,20 +1661,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Person 34</t>
+          <t>Person 55</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>DONS</t>
+          <t>MDCA</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="n"/>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>DONS</t>
@@ -1684,17 +1684,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Person 41</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 59</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
       <c r="H7" s="5" t="n"/>
@@ -1707,7 +1707,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Person 54</t>
+          <t>Person 63</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
@@ -1730,15 +1730,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person 55</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
+          <t>Person 64</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
@@ -1753,17 +1753,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Person 59</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 103</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
       <c r="H10" s="7" t="n"/>
@@ -1776,78 +1776,93 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Person 63</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 118</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Person 64</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 20</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Person 103</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 11</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Person 11</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 12</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
         </is>
       </c>
     </row>
@@ -1942,90 +1957,95 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Person 99</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 3</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Person 2</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 99</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Person 22</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Person 96</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 22</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Person 118</t>
+          <t>Person 96</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
@@ -2064,34 +2084,34 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Person 12</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 19</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Person 19</t>
+          <t>Person 26</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>MDCA</t>
+          <t>DONS</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>MDCA</t>
+          <t>DONS</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2121,12 @@
           <t>Person 28</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
@@ -2118,12 +2138,12 @@
           <t>Person 29</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
@@ -2132,92 +2152,92 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Person 68</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 54</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Person 70</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 68</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Person 71</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 70</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Person 86</t>
-        </is>
-      </c>
-      <c r="E32" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F32" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 71</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Person 89</t>
-        </is>
-      </c>
-      <c r="E33" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F33" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 86</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Person 91</t>
+          <t>Person 89</t>
         </is>
       </c>
       <c r="E34" s="6" t="inlineStr">
@@ -2306,19 +2326,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2331,19 +2351,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -2356,19 +2376,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2381,19 +2401,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2406,19 +2426,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9951</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2431,16 +2451,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>

--- a/results_small/Res_Simulate_data_small_goal.xlsx
+++ b/results_small/Res_Simulate_data_small_goal.xlsx
@@ -48,20 +48,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4E3E7"/>
-        <bgColor rgb="FFF4E3E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBC94E6"/>
         <bgColor rgb="FFBC94E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9D2D6"/>
-        <bgColor rgb="FFF9D2D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,6 +62,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B3DC"/>
         <bgColor rgb="FFE6B3DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9D2D6"/>
+        <bgColor rgb="FFF9D2D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E3E7"/>
+        <bgColor rgb="FFF4E3E7"/>
       </patternFill>
     </fill>
     <fill>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.59425806999207</v>
+        <v>30.14464592933655</v>
       </c>
     </row>
     <row r="4">
@@ -1018,7 +1018,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Standar</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B2" t="n">
